--- a/biology/Zoologie/Galictis_cuja/Galictis_cuja.xlsx
+++ b/biology/Zoologie/Galictis_cuja/Galictis_cuja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Petit grison (Galictis cuja) est une des deux espèces de grisons, des mammifères de la famille des Mustélidés. On le rencontre en Amérique du Sud.
 Cette espèce a été décrite pour la première fois en 1782 par le naturaliste chilien Juan Ignacio Molina (1740-1829).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve au Brésil, en Bolivie, en Argentine, au Chili, au Pérou et au Paraguay.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2013)[2] et Catalogue of Life                                   (31 mai 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2013) et Catalogue of Life                                   (31 mai 2013) :
 sous-espèce Galictis cuja cuja (Molina, 1782)
 sous-espèce Galictis cuja furax (Thomas, 1907)
 sous-espèce Galictis cuja huronax (Thomas, 1921)
